--- a/ATRIBUTI/atr1.xlsx
+++ b/ATRIBUTI/atr1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79184.WIN-OOR1JAM5834\carshop-bot\CMS\ATRIBUTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21439A59-4157-4ABF-A00F-F4C3D9EA38C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA925B46-20B5-438F-BF07-8A0CF7397513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A2BC4B9D-C81D-46E9-9644-ED361F3D0F7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2BC4B9D-C81D-46E9-9644-ED361F3D0F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7462" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7497" uniqueCount="629">
   <si>
     <t>Тип имущества</t>
   </si>
@@ -1907,6 +1907,27 @@
   </si>
   <si>
     <t>нет</t>
+  </si>
+  <si>
+    <t>категория</t>
+  </si>
+  <si>
+    <t>движимое имущество</t>
+  </si>
+  <si>
+    <t>доли, акции и ценные бумаги</t>
+  </si>
+  <si>
+    <t>недвижимое имущество</t>
+  </si>
+  <si>
+    <t>НМА</t>
+  </si>
+  <si>
+    <t>земельные участки</t>
+  </si>
+  <si>
+    <t>права требования</t>
   </si>
 </sst>
 </file>
@@ -2054,6 +2075,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2339340</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>988314</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>82534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34AD943-61DF-43DA-A41C-05C799CE6623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2339340" y="7719060"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="_" refreshedDate="45989.16699351852" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="929" xr:uid="{102D2D11-8D62-43B5-B28D-4AD29D35EBE1}">
   <cacheSource type="worksheet">
@@ -11433,7 +11503,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5D3D4B9-583D-49E9-98D1-6DFB08B5FBF7}" name="Сводная таблица1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5D3D4B9-583D-49E9-98D1-6DFB08B5FBF7}" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -11923,485 +11993,594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461A2CDE-02CE-47DD-B028-FC9458D23CC1}">
-  <dimension ref="A3:C39"/>
+  <dimension ref="A3:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="A3:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="78.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="66.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="52.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="57.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="60.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="69.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="72.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="63.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="66" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="37" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="41.77734375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="44.21875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="85.77734375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="57.5546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="60" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="19" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="52.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="57.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="60.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="63.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="66" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="37" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="41.77734375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="85.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="60" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>621</v>
+      <c r="B4" s="10" t="s">
+        <v>623</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>621</v>
+      <c r="B5" s="10" t="s">
+        <v>623</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>621</v>
+      <c r="B6" s="10" t="s">
+        <v>624</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>621</v>
+      <c r="B9" s="10" t="s">
+        <v>624</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>620</v>
+      <c r="B10" s="10" t="s">
+        <v>625</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>620</v>
+      <c r="B12" s="10" t="s">
+        <v>625</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>620</v>
+      <c r="B13" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>620</v>
+      <c r="B14" s="10" t="s">
+        <v>625</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>621</v>
+      <c r="B15" s="10" t="s">
+        <v>626</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>621</v>
+      <c r="B16" s="10" t="s">
+        <v>626</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>621</v>
+      <c r="B17" s="10" t="s">
+        <v>626</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>620</v>
+      <c r="B19" s="10" t="s">
+        <v>625</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>620</v>
+      <c r="B22" s="10" t="s">
+        <v>625</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>620</v>
+      <c r="B23" s="10" t="s">
+        <v>625</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>620</v>
+      <c r="B26" s="10" t="s">
+        <v>625</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>621</v>
+      <c r="B27" s="10" t="s">
+        <v>628</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>621</v>
+      <c r="B29" s="10" t="s">
+        <v>628</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>621</v>
+      <c r="B30" s="10" t="s">
+        <v>624</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>620</v>
+      <c r="B31" s="10" t="s">
+        <v>625</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>621</v>
+      <c r="B37" s="10" t="s">
+        <v>624</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>619</v>
       </c>
+      <c r="B39" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -12409,7 +12588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC4512E-B2B9-4388-93AA-3F84EA69192E}">
   <dimension ref="A1:H929"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>

--- a/ATRIBUTI/atr1.xlsx
+++ b/ATRIBUTI/atr1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79184.WIN-OOR1JAM5834\carshop-bot\CMS\ATRIBUTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA925B46-20B5-438F-BF07-8A0CF7397513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D0F06F-AB08-48C9-82F1-5AC618F652C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2BC4B9D-C81D-46E9-9644-ED361F3D0F7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A2BC4B9D-C81D-46E9-9644-ED361F3D0F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2075,55 +2075,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2339340</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>988314</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>82534</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34AD943-61DF-43DA-A41C-05C799CE6623}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2339340" y="7719060"/>
-          <a:ext cx="18285714" cy="10285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="_" refreshedDate="45989.16699351852" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="929" xr:uid="{102D2D11-8D62-43B5-B28D-4AD29D35EBE1}">
   <cacheSource type="worksheet">
@@ -11503,7 +11454,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5D3D4B9-583D-49E9-98D1-6DFB08B5FBF7}" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5D3D4B9-583D-49E9-98D1-6DFB08B5FBF7}" name="Сводная таблица1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -11995,7 +11946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461A2CDE-02CE-47DD-B028-FC9458D23CC1}">
   <dimension ref="A3:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -12580,7 +12531,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -12588,8 +12538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC4512E-B2B9-4388-93AA-3F84EA69192E}">
   <dimension ref="A1:H929"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
+      <selection activeCell="D637" sqref="D637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
